--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/21_Bursa_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/21_Bursa_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EEC86B2-A5C7-4429-81BA-0C20A0E5456C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07FE7EF-1E21-442A-B474-07CD9090082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D1BBC3A-7B96-4CF3-B867-7F3E87C4CC62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD6BA70F-D3DB-45F8-9AB6-A9FAB7708BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{BF500BF9-8724-4E11-BCEF-8D3C3659B456}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{CD9901E0-89D8-4CF6-A5D3-4DCBF8F5B193}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{EE90FB2A-BC26-457E-9C93-08644729A710}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{D8899AC2-76CE-47E1-AD08-1669835A5BF8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{B2AB7A4D-CD98-4802-BEAA-18D125504445}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{6391E6B9-E6BF-4A28-93D0-AEF58E98A663}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{42A4D090-11BC-4DD6-9E84-2C0C18E289C1}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{EBB8A8AB-7C2F-4497-AE80-467D4449A5D9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027DA9F-B80D-4C12-BCC8-F3FC7DD26B1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6814CFA4-3254-472A-9C52-153D2FDA74AD}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2491,18 +2491,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0357ABA7-3971-436D-A768-BA5C415629CB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{94C18967-82AD-4D8B-BF5D-35B6568F82D6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9BCD75AA-6EC1-43B8-AD14-55267B0CA4A3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{888B1EBA-E4B6-4C82-BAEA-1628B3862A3B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C7F364B4-4754-4F75-898C-D523BBB77FCB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3E3114BD-9AAD-4C8C-BA64-3E1A2D922AFE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0D4E61E2-5EB9-4A89-B4AA-76E1B5A26448}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D2A47B0F-0450-43DD-A4C9-F0FAE160A617}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6975BC0A-56BF-4742-ACBE-A22AF8C113F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A99AD512-71A2-4F18-9428-4EEC9A017239}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AF51A2AC-0F27-42A0-AA37-D3625A162EB3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{77A9F08C-CDEE-448F-942C-BF9D861AC086}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CBA0B7D9-91D1-4653-B4DD-2DE2F6D3A8E4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{093085CC-AC75-4D65-9847-CCA58A33D30C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C3FB71F4-4642-405E-8855-9A77DC7E707F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5BCFF5E1-8C64-444B-8BBF-5FCF111BF341}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A0815F9A-4181-4C9D-B803-822E51DE8527}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7F3C92AF-1DF8-49D6-B983-7F4C9247E91F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C36FB76A-43CA-41C0-87A4-FCB8380E9FB1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C1E661B7-60D6-469B-8F7C-FC25B9EEA43C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1BB55A15-753B-4C16-BAF9-C43B56CA6CC9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9FD271D2-8BC7-4AF3-A5CF-22F83215D9BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8B61AB36-C02E-4FAA-9D0F-D3B388172B82}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E456BD74-8A07-42DE-8F3D-BF5E0B44642A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2515,7 +2515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27D40C9-7CB8-406E-8548-B4809796F38A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1100142D-D214-4A29-B77B-7F325A5B6474}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3760,18 +3760,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0914118D-CC1B-43CF-8C10-106DC90BA375}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{645C066B-230C-4DA6-8F77-6E97412E54E3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{74336D20-6976-4C8B-AEE5-FEFBBF9C72D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{548ED67D-BE80-4436-8F8D-21EFB05DE8A0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{12794902-AD10-450D-BE77-4D45B2E066CC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E224A5A4-63AA-46BB-B72C-CB2F17A4BCBD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{02BBDE9B-39D2-496A-91DC-EA9AB12F08F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{95FB5D37-0126-47AB-85E7-A4FCE87AD589}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0DD5F479-C7FC-448B-B632-CE01680EBA99}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{40FD0C61-A8A3-46C6-9989-2C522A40590D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{057E5943-78BA-45C6-8458-052EA5500381}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{70376A7B-5D00-469E-9BB2-B9428EA2CF79}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0E359747-2579-4F83-8EC0-60B32989A043}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8A6C60B1-2309-4486-866E-C5E032A51EB2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FB415765-9575-4A99-9DC2-65239344859B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{69B9FD50-8331-47DA-A980-1EA70ACE2538}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{34D09682-92BC-42D0-B4D4-65997AE3B264}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CF82094F-3081-4186-BC12-46F0EBC51EB7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{78AC134F-AAB5-44FE-A102-E1F98014E529}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{75623A01-6DD8-464F-BC6D-49D12CFFA92F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C474D6C7-7278-470B-B417-F811458507D1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7852AAB3-EB6F-4211-8BED-B39774F91268}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3C0BF87A-A791-4954-92B9-AEF4C3AD2BDF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BC494E1E-3565-4DB6-AF7C-86DE1146C2F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3784,7 +3784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021F5B14-4553-4DC6-AA3D-B6DD3C098714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6D17F8-2BD0-470F-A289-C1779156E0F0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5021,18 +5021,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FE2E8B22-8478-46E6-8E11-25FA0F13BBB0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BF215F99-B509-48AF-AC64-FFE8B41A65C3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{623142C2-D764-4E30-9A45-D2D7708709E7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{90602BC4-FBEB-4657-A93E-EDA5F2BE3CD2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{644D203B-880C-42D2-AAAF-63F0A8B4CBBE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4D479085-81E7-401A-B15F-80A5F5267FE4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A3B5091E-9CB5-4758-A6D2-6DEDDEB7AE6C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{42A87729-A757-4627-A6D8-E6E06C38AC9D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{81AF2613-4A29-4497-ADBB-B04776C4248E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F256E030-515C-45B7-B844-498CB15FCC3E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7C441DEB-03ED-4932-A208-72C124A3C03E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{819DE9C3-CE96-4BCE-855E-0166E14827EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9C6D1125-90A4-4973-8D4D-EC3B4698BF64}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C92B1186-599B-4837-8106-E41C9FBB8019}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{15631D98-68C2-4ADC-A702-BA8B8FBFBFEB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B94B0692-B73A-40E7-8258-14415BEABDC8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8D14BC14-D296-40B4-B238-C9D44BA0918E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{30B5F18C-92E5-447A-B516-E8B06214C186}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{69B517DB-06FB-4DEC-862E-E87E8FDACB4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D1393798-6A18-4361-BE2E-4E0872067834}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{558C9ECA-C6F9-4DFE-92E0-8CE81F7F8E58}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D61126CF-BC91-4C32-94B2-34D6EBCE8C57}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3D03B305-3CE8-4A9A-BA43-8020A4C489CB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{20E5D1A2-2359-4810-9430-EBB5EA913EE1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5045,7 +5045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36353F21-AE94-4C66-9AA9-5AAC77F84457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1458F014-0FAE-4D26-A87D-70A856F7F43E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6270,18 +6270,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4E42F8C8-3E16-4D7D-89E4-97230A60A86C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C9E5E643-8987-4903-9AA5-29B60F3522F8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F8AA1793-9513-4884-9C2C-EE5ED60078EF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1F84F56C-34B5-4AEB-BED4-61F3A45F3D66}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{79A01CE9-84DF-400F-83F8-D92DDA89F60C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C1AEAB39-1A79-435D-985E-AC911E252F60}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D190D834-E7AB-44E0-A9C5-67D61F6F4BE4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DB385FC7-04CA-4187-B57B-9E14AA2C0C4E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9DAB6F08-75E7-4F5F-8DB8-2C7EA51A11C8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C61E2D7E-F198-4855-8198-22E9F4F8A0A8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EACA8F09-3E05-484E-A42C-202CF9494C20}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FCA4515D-048A-4766-9F6C-0D3FCEBCCDD5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C53FC930-BBD1-4223-A9B4-2F3EC2D97423}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{052A4F98-F661-4153-85E1-08659AC935ED}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{721D53A1-5244-4E30-84F6-EEB2CB8FE318}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DD5F0E26-A83A-492B-8EE3-CAD9C5CCBDFF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4577DA5C-AEF3-4AEA-8C61-682942F4E17F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FF88385D-8802-4D3A-9F28-FF9B084E9457}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{25F21F3A-0678-4421-B5EC-9D67E0793524}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{40760E8E-5988-4030-A858-C3841BE8BEA3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{332149C4-0B5C-4295-922D-8F439879D599}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{696009C4-BFD7-4B0B-B46D-DCC9CCEA98CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{376C13D2-0702-4AA8-A1B0-FFCDDD6081AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{15E7322D-9A96-4AF3-B72F-D3D68DEF0CE4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6294,7 +6294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFEFDD0-81BF-4943-9D99-F515CB93903B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D93CA37-4575-4D03-AE01-0E05EA057834}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7551,18 +7551,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9E3F2E6F-CF51-4F72-9E0E-8ED01AB5B507}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7D29D499-0931-4C8C-98A2-503FD12B1CB6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DC85790C-DBD5-480C-A71F-ABF0A7EDD56F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7C028033-9626-4CFA-A883-35FF9B67A64B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BFFA8B9A-4AD7-40FD-B08F-E306130177C4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C896B3BD-427E-4EE4-BEA3-7A5EC085C570}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7578B14F-0CDA-4F85-8A50-6DEBA0AF7282}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9E92A7B0-06AE-4482-8C5E-7F11E0625A76}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F1BC4C6F-8E2C-4EEA-B87A-3D5682D8C80E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{12118325-A7FE-45C2-BED7-0FFEECED593E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{072F4933-9C8C-44BA-98D8-EE12E4752D57}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E35112A5-5A73-40D6-A206-B8635FA490F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{96E2A96D-91D2-4961-A52B-0FBFCBEC1630}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3C43FF80-447E-4D93-B374-4DD9AEE50F0F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{36DE8745-81B4-4E83-BE20-4F94EA017D1C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FD315BCD-DCAE-492C-967C-5D18DDE3F205}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1D018086-ECC3-4D2A-8A8F-FA05189E811E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2D08A7CD-5D48-4DDF-9195-FE3FB2AA486B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6FA33127-3DFF-4771-920A-C1F2D7D05809}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{72FECD09-F8A0-48BB-8AF8-F451227BABA7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D7F945E8-E6D4-4F49-89C6-43D0E93BBA32}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6516ACA3-4D56-4A60-B3A4-511E929A923D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DD20120F-3164-4167-8596-2AFFB2D9C944}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D38D25FB-86DD-4E9C-8C59-2958A745C8C5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7575,7 +7575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5641E57C-674D-46E4-B0C6-C8A26349B7A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4126EE6-74E5-4708-B431-44D6ECA0526A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8832,18 +8832,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8835C895-43B4-450F-8FA9-AF33344531B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F6300693-BCF9-4850-8443-0AC15D625D3A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{ED295272-0A68-4D63-ADC2-B00C01EE29B4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B9A9D5F6-CF8B-454A-BA8E-00B5A9AAB988}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9504A041-920C-4670-ADD9-A0050468455F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1F56770D-3CAC-4B6D-BF91-4339346F01CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ABC295FB-EFDD-4C4A-A316-4A975DCCAFD8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2BF8B445-9071-4F8C-ABA0-BD71F82C9D43}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{40E5F889-481D-42A1-B9E7-2A0C1359E8CA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B2742AAC-9270-4FAE-9C56-23C82C47D989}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{94B433AF-17EC-48FA-B4ED-E952894C88C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E1FE9405-7DFE-4879-BB79-404D81C2B2ED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4F6D9FEB-586C-4A93-818D-A88AC9C6F391}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E266355C-710D-410D-8373-99D40D873E1C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{797AC4C7-45EC-40A2-941D-37A404A768EC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BE50AF2F-D28C-48A6-AC06-FF647396A3F8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{93FDEC96-1203-43E8-A396-B7EF9C925FE6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{06F12164-F4AA-4850-AC5F-ACC54B0A5954}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D5477534-DCEC-4E4C-8F9B-6EF5306A735C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{32E78A99-9041-4171-813B-C1E663EFE491}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{19357ED3-9948-430B-92D0-F83BF118B61F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E6988ED3-FD8D-4841-93DC-07C56FFF8447}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{80E41384-BE75-450D-ADE3-A79FD1298A91}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EEF826D7-AD47-4652-B28D-24D1361067FC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8856,7 +8856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222DF42B-64AF-4EC2-B42C-D4E5E9B393DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6321B1-322C-4B10-9C59-9EA9654E378C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10111,18 +10111,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B7426385-509B-481B-A2BF-751EC5950B3E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FF4AA3EA-82C9-4B27-998E-3B1B2CC92CFE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{589838E9-F203-4AD4-A831-E142A80F9D62}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5C1FF9B7-9E42-4A62-8752-2DDF65A4A7BB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{40FC7362-F9B5-4BFC-9FB2-BF3D798FC4E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{82FD4A8F-7421-45C9-9418-A694227858DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5C3D608B-C5E1-4998-9613-2CF78597FD00}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{692CBEAA-5865-42F5-A448-1321D7A8F83C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{799823C1-1E7A-4149-8B47-1BB3B8237EE5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{59FDD824-F960-4EF9-8E9B-B807F7395E86}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2F76D647-01CF-4099-B485-42398231C893}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8DF2D8D7-F024-4B77-B508-67EE1DFD8E18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C6477BA1-ECC1-42AC-928B-B704042AE949}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9B200446-154A-44D3-8BC9-FC5EF29B39AE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{64E13A43-C779-4082-AE22-E6731A4DD170}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{409D30AF-7DAE-4D53-9AEF-08A55610ACC5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2B42837D-BAB2-42DB-8AAE-E819E9417AE1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BD63EA27-12EE-4BAF-B41D-13974ED4EBC0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4930976E-90F6-48E2-8168-5D774163BFF1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{00FF48FE-3DA6-4908-8951-C6063CC07AB8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{086D4FCF-3C02-4FD6-9C70-0B93F60287C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B7BA7C40-6154-4FB2-A6D4-2102D1AFD0DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2400E414-CF84-41DA-8CB7-D3FCA0E3A2F1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DD2CA33D-8A19-4CB4-A76B-5CFD90994EC1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10135,7 +10135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC0781D-14C1-42E9-80EE-5EEF502A5622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C661DA3-B1BF-42B0-B95A-5B00E71C86E0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11390,18 +11390,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A272A322-6740-4344-8349-E0C092E9E72B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1D071A03-0CF0-4EE9-AAD1-62817A4B9661}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{26057617-D635-472B-AE6D-F954756A2894}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8C1840ED-F38A-4FB0-816D-72CA07DE6AE7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C16E71FE-A021-4A20-B622-F28607935DD9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{657D08F3-D8EE-42BC-B22B-57DF80124B59}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2EA548F9-D91C-4F8D-ABD2-77EE2CECA0E0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B2BE1F42-05B2-47A2-969E-2CDDB0016335}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{362AFD7E-6594-45E4-ADDE-11C737A22948}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{80E11DF9-3F49-4494-B443-C51A285424A1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{544FF039-A764-4D0A-8F8B-55622D887891}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8E0E8F76-9322-497D-9888-9553D2E8C4C2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{16E53B52-BA55-4895-852E-66AA39161150}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2C538742-4BE8-4668-B2B6-74F0E0637DC3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4802B8B1-07B0-43C0-AEA7-7D776BE956AA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B5FE671A-1CCC-444F-AABF-848B962550A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BB85FB4B-FBC3-45CD-A77D-97D415E2F291}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CF744434-66FE-41FB-8112-C7520CBBB487}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5184BC59-DBEA-4EE9-832D-1D10810127E8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2553A30E-A975-4A3A-A4C1-0318DFF4BB09}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{088A0F88-454C-4939-875C-E2D06BCD32D3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A714F664-A41F-486C-A9D9-05EEC554D156}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3F185711-6A6C-420C-B7C0-E6F03EC54998}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{73F9AE8F-548E-456E-9042-8AC02E6D70F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11414,7 +11414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F0D0C7-BAF9-49D9-B71B-457F577AF10B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B49AFA9-E308-4D2D-97C1-9D63BF8C8902}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12673,18 +12673,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FA63DC76-86BF-4C29-BE59-CAFC3A113D88}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{172ADE67-F4F2-4408-948D-0F601F5E1E27}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{02CC41D1-63E4-4E8E-9E74-74C4E03C668E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AF904EA2-70B7-4A8A-8FD0-98C1E160B7F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{09EE7C87-E5E8-48ED-97B5-8160D9985F16}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A4BD8800-1B08-46AF-8FEA-C7FAC1C1AF4C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{39585BAB-FEEE-4FD2-93BD-A6207B8E4332}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3F091A2E-B3E5-4CE3-B933-BD078A5B9624}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C1783116-897E-46E6-9416-C49E0C88413A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{98BA26EC-189E-4C4B-946D-C0A5119F0195}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{585C615B-936C-4BBF-A08F-28192202250A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{67FDC02B-78F8-47EA-A618-09B8BA27F2D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BCC882D0-4186-4621-B01C-24065B2D3F9F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{69AB40F0-6CFA-4613-95D8-3188E3CE0660}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{611B9914-C42C-4810-8A72-5C08ABEF7D94}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5E2248CE-C5EE-4ABD-B457-9FA4301B424B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6C2ECD41-119B-4D24-8998-48DA77F348E4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E03B21E5-C40D-43E9-97B4-107E67640DDF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{41363DC9-7B2C-4F75-B41C-8099A922581C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DBEB0FDF-2FB1-474E-93C6-C5D6BF2FF822}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CFBAB7AD-0049-48AF-8753-11261DF6F5E5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FF3BC9C6-46C8-4B73-AAAC-7C441602DBDB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E45A8431-3A5C-4EF5-A2BA-1CB1D45153C2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{86F95F77-0DA9-4972-B3A0-1F8DB75F7C0C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12697,7 +12697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827553AB-A024-460D-97F1-B0F3DDEB6FD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0055DC-F6F4-478B-A76A-7F42007AA653}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13956,18 +13956,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2ADAE6AE-CF8E-4B37-A0E0-FF8A3CB8AA72}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{16B348E5-FD2F-41B8-9D3E-48148C344449}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{26D8683C-CA3B-46B7-BE13-B10E523CA9B1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{996DC5B0-9774-4E4A-B48D-F2054E06200D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{11CB7A7E-E66C-45B2-8513-60E76EA94A12}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3320E1CF-571A-4E14-994F-84A4195DF7E0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7FB15C4C-B678-4A6C-A9CE-5F74C75C6AB2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F386606E-8BF7-4C2B-9128-15B1FAD3EC35}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8A4ABFDA-2BA5-40B8-819C-9FA3446E1660}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EF84B596-3D35-4961-BEB8-FA97D0C3DA7A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8D11B962-9B81-4D18-8C66-E832CF53603C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{686F062E-99EA-47EB-963E-209F454810DF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C70FE306-C811-43FF-8324-7A543A25BA51}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{599FEE13-6A09-4C49-92A3-1B5D19D26F4E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5C20B1DD-8FEA-4844-9C85-B4CF11CE5C63}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6A4526D9-FD98-44C8-A986-F3490B6AA791}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{76FB2DA0-FDBE-4767-94F9-069439D21B92}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7C402B95-154B-442B-8933-0F947C597272}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{18DA4FF4-93C3-4891-BA1B-C984C057AB8F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{60C28949-D57E-48A5-A414-946DF8C1D9BB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CDF66C7C-B1BF-4F96-AF3B-959E9C1265F2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{236A4572-26FA-45DE-A7A6-D3287116DA55}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6C80FE5E-EE9B-4478-AA45-9A0049C2EFDF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{35856B96-A580-4F41-A3A8-48045563E035}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13980,7 +13980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44C315F-441A-4AA2-94ED-E4282343B94A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19687EC-CF27-469E-B812-62B5A6B22A4B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15233,18 +15233,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7EF842DA-6785-44B3-8619-5A372E5B78A4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E5A1E44B-3DBC-4E62-A798-50EA0DFDA9BF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{30A767C4-DFF7-4B7C-AE52-A5404442C015}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4E37C111-A311-4EDB-A0A7-A431F1C54C0E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{792DE803-E628-4324-B64D-D6F2242758C3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B9BDCAD6-AEF3-46DB-BE88-6C1908D5C3D9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{93061978-97DE-42B8-8076-CF91D024DE13}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FDC062A0-C21E-4604-ADD6-74A86002BE51}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D1BE8C00-A354-4721-93C6-F3561D1BF68A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AC7E5E56-D0E9-46A3-B6B3-4B4F3B70C32B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1F69FE37-77C5-429B-9545-D3BD5BE25CCF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ED0505F6-5A2F-4C2B-968F-5742538B6363}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DBC77FC1-4F6A-400D-A3DD-F6EEAD4896A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DC2A1DB6-E69D-4659-BC1D-E2787BB9BF96}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E47BE5CC-3317-414E-A834-032BB556DAAE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{67B17126-F124-4179-9BD4-84B402AE0F78}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{46AAEAD8-A1DD-4621-B3C3-D452FD23AD44}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{40A25755-979A-4B3B-A93C-6FA09E6E5EE2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{92C7B808-D5BA-4287-8ADF-31869BBC5D67}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4CA4EF11-1EC7-4049-8E33-35CFDE3F3679}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7D91A94F-96A5-4B1A-8D1E-526C4471164A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2230D35D-4E25-4C59-A9F7-6D4D0D000251}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EE8B65E7-ACD1-44A1-8D50-32FA77B41392}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DCDACA10-D6B4-4E35-89E3-300B40D35F73}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15257,7 +15257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D167F2D0-FB6C-4CD0-8188-64E43B1F7465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEAEEDA-87D5-4612-84B8-CE4DCB1B6725}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16510,18 +16510,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FBCB1428-C8F8-4A3D-B805-F31D04DF205D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2329FE3D-9658-4861-84AB-72C05556DA21}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F9D875BD-2834-4FD9-9AAC-DCA08DF43906}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CD748989-D069-46EA-8035-8E4BF5A074F5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{78EDF614-1C24-4711-9A9D-3E5B8BDC24E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{901A668A-BD6E-420E-876D-D8A4A78B76C9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9D5DD8A9-F9B0-4BE4-8DFC-C3F8B1CDCE1E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CD52736E-41A1-4C02-A283-F690086C8C39}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4668E352-C62E-4375-B891-5F5E5B6208C2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A0EE94E0-CADB-4DBC-BC66-48CD8D554EC2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5D470359-3B31-4CD4-886E-DD1543514EA7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F9A33D59-2BCF-4662-94A8-71056E6E6F23}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3FACA84E-2028-46AE-9466-9DEBB34075D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{938C8645-A86D-498C-A142-AB6F87EE2818}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8D3458EE-80AC-428C-B7F9-3F74C520DCB1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FFEC279F-0B46-4AA6-B0D5-16FCA13F4831}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CBF276F2-0C49-45F7-B3C5-1B976ABC9761}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8A021E20-8936-4300-8C10-DED8B5EB5DF7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6BF5B98F-D9F8-47EA-8EFD-20C819942B56}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{25312509-8725-4229-A0BD-517A192FD8DA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{30CFF0FB-1EF8-4F33-9275-1A2CBFA4ADBA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9E0FDF33-D30C-44D3-885A-B17A4C5385D9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2E84D819-91FC-4E0E-B09F-D9E16EDA3F65}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C278CE88-4130-41A1-90A8-6A020A46A016}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
